--- a/apidev/machine_config.xlsx
+++ b/apidev/machine_config.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\BTP2\apidev\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +17,6 @@
     <sheet name="Components" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1:C15"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -114,10 +118,10 @@
     <t>Sub(Rs)</t>
   </si>
   <si>
-    <t>MTTR</t>
-  </si>
-  <si>
-    <t>Sigma_TTR</t>
+    <t>MTTR(hours)</t>
+  </si>
+  <si>
+    <t>Sigma_TTR(hours)</t>
   </si>
 </sst>
 </file>
@@ -771,8 +775,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -974,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,8 +987,8 @@
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" customWidth="1"/>
     <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>

--- a/apidev/machine_config.xlsx
+++ b/apidev/machine_config.xlsx
@@ -979,7 +979,7 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
     <col min="5" max="5" width="14.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
     <col min="7" max="7" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>

--- a/apidev/machine_config.xlsx
+++ b/apidev/machine_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>percentage Variation in Processing Time</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>Mean_Loading Time(min)</t>
-  </si>
-  <si>
-    <t>RateJobArriaval(/hour)</t>
   </si>
   <si>
     <t>SD_Loading Time(min)</t>
@@ -128,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,8 +149,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -164,6 +176,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -287,13 +305,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -315,12 +333,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="8">
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -446,23 +466,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -477,27 +480,6 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:L2" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="A1:L2"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="RateJobArriaval(/hour)"/>
-    <tableColumn id="2" name="percentage Variation in Processing Time"/>
-    <tableColumn id="3" name="Mean_Loading Time(min)"/>
-    <tableColumn id="4" name="SD_Loading Time(min)"/>
-    <tableColumn id="5" name="Mean_Unloading Time(min)"/>
-    <tableColumn id="6" name="SD_Unloading Time(min)"/>
-    <tableColumn id="7" name="Mean_Shift_In_Process_mean(mm)"/>
-    <tableColumn id="8" name="SD_shift_in_process_mean(mm)"/>
-    <tableColumn id="9" name="Mean_shift_in_Process_sd(mm)"/>
-    <tableColumn id="10" name="sd_Shift_in_process_sd(mm)"/>
-    <tableColumn id="11" name="Rate_Shifting(/hour)"/>
-    <tableColumn id="12" name="fraction_Defective"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:D5" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D5"/>
   <tableColumns count="4">
@@ -773,110 +755,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
-    <col min="2" max="2" width="37.85546875" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" customWidth="1"/>
-    <col min="8" max="8" width="31" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="41.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" s="7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B5" s="7">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B7" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B8" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B9" s="7">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B10" s="7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>0.01</v>
-      </c>
-      <c r="L2">
-        <v>0.3</v>
+      <c r="B11" s="7">
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -885,7 +866,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -897,72 +878,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="7">
         <v>10</v>
       </c>
-      <c r="C2" s="8">
-        <v>1</v>
-      </c>
-      <c r="D2" s="10">
+      <c r="C2" s="7">
+        <v>1</v>
+      </c>
+      <c r="D2" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <v>40</v>
       </c>
-      <c r="C3" s="8">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10">
+      <c r="C3" s="7">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>30</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>2000</v>
       </c>
-      <c r="C5" s="15">
-        <v>1</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
         <v>3</v>
       </c>
     </row>
@@ -978,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,1055 +978,1055 @@
     <col min="12" max="12" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1.61</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>0.8</v>
       </c>
-      <c r="D2" s="5">
-        <v>1</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F2" s="6">
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F2" s="5">
         <v>0.3</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>1100</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>776</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <f t="shared" ref="I2:I27" si="0">G2+L2</f>
         <v>1200</v>
       </c>
-      <c r="J2" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K2" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L2" s="6">
+      <c r="J2" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K2" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L2" s="5">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="4">
         <v>3.4</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1.07</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.78</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F3" s="5">
         <v>0.2</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="5">
         <v>100</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="5">
         <v>776</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J3" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L3" s="6">
+      <c r="J3" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K3" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L3" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="4">
         <v>7.8</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1.06</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.82</v>
       </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F4" s="5">
         <v>0.3</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="5">
         <v>300</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="5">
         <v>976</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J4" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K4" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="J4" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L4" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>1.8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>2.83</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.82</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2</v>
       </c>
-      <c r="E5" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="E5" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F5" s="5">
         <v>0.3</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="5">
         <v>6200</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="5">
         <v>6538</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="6">
         <f t="shared" si="0"/>
         <v>6400</v>
       </c>
-      <c r="J5" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L5" s="6">
+      <c r="J5" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K5" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L5" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>3.33</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>0.83</v>
       </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.3</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <v>20000</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="5">
         <v>20676</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="6">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
-      <c r="J6" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="J6" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K6" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L6" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="4">
         <v>1.6</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>6.04</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>0.84</v>
       </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F7" s="5">
         <v>0.3</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>5000</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>2352</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="6">
         <f t="shared" si="0"/>
         <v>5800</v>
       </c>
-      <c r="J7" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K7" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L7" s="6">
+      <c r="J7" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K7" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L7" s="5">
         <v>800</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="4">
         <v>3.3</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>0.85</v>
       </c>
-      <c r="D8" s="5">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F8" s="5">
         <v>0.3</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <v>150</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="5">
         <v>826</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K8" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L8" s="6">
+      <c r="J8" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K8" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L8" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="4">
         <v>1.8</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>2.83</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>0.86</v>
       </c>
-      <c r="D9" s="5">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F9" s="5">
         <v>0.3</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <v>2500</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="5">
         <v>5028</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <f t="shared" si="0"/>
         <v>2700</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K9" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L9" s="6">
+      <c r="J9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K9" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L9" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="4">
         <v>14</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>3.33</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>0.87</v>
       </c>
-      <c r="D10" s="5">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="5">
         <v>0.5</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <v>30000</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="5">
         <v>31402</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <f t="shared" si="0"/>
         <v>30000</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K10" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="J10" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K10" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L10" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>6.6</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>0.88</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F11" s="5">
         <v>0.5</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="5">
         <v>7000</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="5">
         <v>8352</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="6">
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-      <c r="J11" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K11" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L11" s="6">
+      <c r="J11" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K11" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L11" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="4">
         <v>3.2</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>5.56</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>0.89</v>
       </c>
-      <c r="D12" s="5">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F12" s="5">
         <v>0.5</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="5">
         <v>8000</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="5">
         <v>9352</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="6">
         <f t="shared" si="0"/>
         <v>8000</v>
       </c>
-      <c r="J12" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K12" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L12" s="6">
+      <c r="J12" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K12" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L12" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="4">
         <v>7.7</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>0.89999999999999902</v>
       </c>
-      <c r="D13" s="5">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F13" s="5">
         <v>0.5</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="5">
         <v>250</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="5">
         <v>473</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="6">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J13" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K13" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L13" s="6">
+      <c r="J13" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L13" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="4">
         <v>14</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>3.33</v>
       </c>
-      <c r="C14" s="5">
-        <v>1</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>1</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F14" s="5">
         <v>0.5</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="5">
         <v>10000</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="5">
         <v>10676</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="6">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
-      <c r="J14" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L14" s="6">
+      <c r="J14" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="4">
         <v>22.8</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>2.59</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>0.91999999999999904</v>
       </c>
-      <c r="D15" s="5">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="D15" s="4">
+        <v>1</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F15" s="5">
         <v>0.5</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="5">
         <v>100000</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="5">
         <v>12028</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="6">
         <f t="shared" si="0"/>
         <v>110000</v>
       </c>
-      <c r="J15" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K15" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L15" s="6">
+      <c r="J15" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K15" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L15" s="5">
         <v>10000</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="4">
         <v>20.3</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>3.93</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>0.92999999999999905</v>
       </c>
-      <c r="D16" s="5">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F16" s="6">
+      <c r="D16" s="4">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F16" s="5">
         <v>0.5</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <v>100000</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="5">
         <v>18760</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="6">
         <f t="shared" si="0"/>
         <v>112000</v>
       </c>
-      <c r="J16" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K16" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L16" s="6">
+      <c r="J16" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K16" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L16" s="5">
         <v>12000</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="4">
         <v>14</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>3.33</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>0.93999999999999895</v>
       </c>
-      <c r="D17" s="5">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F17" s="5">
         <v>0.5</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <v>200000</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="5">
         <v>200676</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="6">
         <f t="shared" si="0"/>
         <v>200200</v>
       </c>
-      <c r="J17" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K17" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L17" s="6">
+      <c r="J17" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K17" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L17" s="5">
         <v>200</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="4">
         <v>20.3</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>3.93</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <v>0.94999999999999896</v>
       </c>
-      <c r="D18" s="5">
-        <v>1</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F18" s="6">
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F18" s="5">
         <v>0.4</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <v>160000</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="5">
         <v>192448</v>
       </c>
-      <c r="I18" s="7">
+      <c r="I18" s="6">
         <f t="shared" si="0"/>
         <v>180000</v>
       </c>
-      <c r="J18" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L18" s="6">
+      <c r="J18" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K18" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L18" s="5">
         <v>20000</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="4">
         <v>6.8</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>3.76</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.95999999999999897</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F19" s="6">
+      <c r="E19" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F19" s="5">
         <v>0.4</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <v>100000</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="5">
         <v>105338</v>
       </c>
-      <c r="I19" s="7">
+      <c r="I19" s="6">
         <f t="shared" si="0"/>
         <v>100000</v>
       </c>
-      <c r="J19" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="J19" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K19" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L19" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="4">
         <v>1.6</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>5.94</v>
       </c>
-      <c r="C20" s="5">
-        <v>1</v>
-      </c>
-      <c r="D20" s="5">
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4">
         <v>2</v>
       </c>
-      <c r="E20" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F20" s="6">
+      <c r="E20" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F20" s="5">
         <v>0.4</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="5">
         <v>150</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="5">
         <v>319</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="J20" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K20" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L20" s="6">
+      <c r="J20" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K20" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L20" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="4">
         <v>14</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>2.69</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.97999999999999898</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F21" s="6">
+      <c r="E21" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F21" s="5">
         <v>0.4</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="5">
         <v>12200</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="5">
         <v>17608</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="6">
         <f t="shared" si="0"/>
         <v>12200</v>
       </c>
-      <c r="J21" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K21" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="J21" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K21" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L21" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="4">
         <v>9.9</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>4.6399999999999997</v>
       </c>
-      <c r="C22" s="5">
-        <v>1</v>
-      </c>
-      <c r="D22" s="5">
+      <c r="C22" s="4">
+        <v>1</v>
+      </c>
+      <c r="D22" s="4">
         <v>2</v>
       </c>
-      <c r="E22" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F22" s="6">
+      <c r="E22" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F22" s="5">
         <v>0.4</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="5">
         <v>250</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="5">
         <v>926</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="6">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="J22" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K22" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L22" s="6">
+      <c r="J22" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K22" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L22" s="5">
         <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="4">
         <v>3.7</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>2.69</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>0.999999999999999</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="4">
         <v>2</v>
       </c>
-      <c r="E23" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F23" s="6">
+      <c r="E23" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F23" s="5">
         <v>0.4</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23" s="5">
         <v>120000</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23" s="5">
         <v>60292</v>
       </c>
-      <c r="I23" s="7">
+      <c r="I23" s="6">
         <f t="shared" si="0"/>
         <v>170000</v>
       </c>
-      <c r="J23" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K23" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="J23" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K23" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L23" s="5">
         <v>50000</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="4">
         <v>1.8</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>2.83</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="C24" s="4">
+        <v>1</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5">
         <v>50000</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="5">
         <v>59616</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="6">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="J24" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K24" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L24" s="6">
+      <c r="J24" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K24" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L24" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="4">
         <v>36</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3.01</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
         <v>10000</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>8088</v>
       </c>
-      <c r="I25" s="7">
+      <c r="I25" s="6">
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="J25" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K25" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="J25" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K25" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L25" s="5">
         <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="4">
         <v>14</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>3.33</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="C26" s="4">
+        <v>1</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+      <c r="G26" s="5">
         <v>40000</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="5">
         <v>55700</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="6">
         <f t="shared" si="0"/>
         <v>40000</v>
       </c>
-      <c r="J26" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K26" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L26" s="6">
+      <c r="J26" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K26" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L26" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="4">
         <v>7.7</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0.01</v>
-      </c>
-      <c r="F27" s="6">
-        <v>1</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="C27" s="4">
+        <v>1</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
         <v>16200</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="5">
         <v>11492</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I27" s="6">
         <f t="shared" si="0"/>
         <v>17200</v>
       </c>
-      <c r="J27" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="K27" s="5">
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="L27" s="6">
+      <c r="J27" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="K27" s="4">
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="L27" s="5">
         <v>1000</v>
       </c>
     </row>

--- a/apidev/machine_config.xlsx
+++ b/apidev/machine_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,6 @@
     <t>Pressure</t>
   </si>
   <si>
-    <t>rpm</t>
-  </si>
-  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>Sigma_TTR(hours)</t>
+  </si>
+  <si>
+    <t>Spindle Speed</t>
   </si>
 </sst>
 </file>
@@ -757,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,7 +777,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="7">
         <v>0.1</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="7">
         <v>0.03</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7">
         <v>0.09</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7">
         <v>0.05</v>
@@ -817,7 +817,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="7">
         <v>7.0000000000000007E-2</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7">
         <v>0.03</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7">
         <v>0.06</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="7">
         <v>0.03</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B11" s="7">
         <v>0.01</v>
@@ -865,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,7 +888,7 @@
         <v>3</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -935,7 +935,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B5" s="14">
         <v>2000</v>
@@ -980,40 +980,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">

--- a/apidev/machine_config.xlsx
+++ b/apidev/machine_config.xlsx
@@ -3,20 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git\BTP2\apidev\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10575" windowHeight="5100" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14670" windowHeight="5985" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Mc_Params" sheetId="2" r:id="rId2"/>
     <sheet name="Components" sheetId="4" r:id="rId3"/>
+    <sheet name="LSA" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1:H16"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>percentage Variation in Processing Time</t>
   </si>
@@ -119,6 +116,15 @@
   </si>
   <si>
     <t>Spindle Speed</t>
+  </si>
+  <si>
+    <t>Processing Cost</t>
+  </si>
+  <si>
+    <t>Supported Operations</t>
+  </si>
+  <si>
+    <t>operation2,operation3</t>
   </si>
 </sst>
 </file>
@@ -185,7 +191,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,6 +306,17 @@
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -310,7 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
@@ -334,6 +351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="20% - Accent5" xfId="2" builtinId="46"/>
@@ -758,7 +776,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="C5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,10 +1036,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1.61</v>
+        <v>1000</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1000</v>
       </c>
       <c r="C2" s="4">
         <v>0.8</v>
@@ -1057,10 +1075,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
-        <v>3.4</v>
-      </c>
-      <c r="B3" s="5">
-        <v>1.07</v>
+        <v>1000</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1000</v>
       </c>
       <c r="C3" s="4">
         <v>0.78</v>
@@ -1096,10 +1114,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
-        <v>7.8</v>
-      </c>
-      <c r="B4" s="5">
-        <v>1.06</v>
+        <v>1000</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1000</v>
       </c>
       <c r="C4" s="4">
         <v>0.82</v>
@@ -1135,10 +1153,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2.83</v>
+        <v>1000</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1000</v>
       </c>
       <c r="C5" s="4">
         <v>0.82</v>
@@ -1174,10 +1192,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3.33</v>
+        <v>1000</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1000</v>
       </c>
       <c r="C6" s="4">
         <v>0.83</v>
@@ -1213,10 +1231,10 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="B7" s="5">
-        <v>6.04</v>
+        <v>1000</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1000</v>
       </c>
       <c r="C7" s="4">
         <v>0.84</v>
@@ -1252,10 +1270,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
-        <v>3.3</v>
-      </c>
-      <c r="B8" s="5">
-        <v>4.1399999999999997</v>
+        <v>1000</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1000</v>
       </c>
       <c r="C8" s="4">
         <v>0.85</v>
@@ -1291,10 +1309,10 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="B9" s="5">
-        <v>2.83</v>
+        <v>1000</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1000</v>
       </c>
       <c r="C9" s="4">
         <v>0.86</v>
@@ -1330,10 +1348,10 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>3.33</v>
+        <v>1000</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1000</v>
       </c>
       <c r="C10" s="4">
         <v>0.87</v>
@@ -1369,10 +1387,10 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
-        <v>6.6</v>
-      </c>
-      <c r="B11" s="5">
-        <v>4.4000000000000004</v>
+        <v>1000</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1000</v>
       </c>
       <c r="C11" s="4">
         <v>0.88</v>
@@ -1408,10 +1426,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
-        <v>3.2</v>
-      </c>
-      <c r="B12" s="5">
-        <v>5.56</v>
+        <v>1000</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1000</v>
       </c>
       <c r="C12" s="4">
         <v>0.89</v>
@@ -1447,10 +1465,10 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>2.4900000000000002</v>
+        <v>1000</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1000</v>
       </c>
       <c r="C13" s="4">
         <v>0.89999999999999902</v>
@@ -1486,10 +1504,10 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
-        <v>14</v>
-      </c>
-      <c r="B14" s="5">
-        <v>3.33</v>
+        <v>1000</v>
+      </c>
+      <c r="B14" s="4">
+        <v>1000</v>
       </c>
       <c r="C14" s="4">
         <v>1</v>
@@ -1525,10 +1543,10 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
-        <v>22.8</v>
-      </c>
-      <c r="B15" s="5">
-        <v>2.59</v>
+        <v>1000</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1000</v>
       </c>
       <c r="C15" s="4">
         <v>0.91999999999999904</v>
@@ -1564,10 +1582,10 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="B16" s="5">
-        <v>3.93</v>
+        <v>1000</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1000</v>
       </c>
       <c r="C16" s="4">
         <v>0.92999999999999905</v>
@@ -1603,10 +1621,10 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
-        <v>14</v>
-      </c>
-      <c r="B17" s="5">
-        <v>3.33</v>
+        <v>1000</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1000</v>
       </c>
       <c r="C17" s="4">
         <v>0.93999999999999895</v>
@@ -1642,10 +1660,10 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
-        <v>20.3</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3.93</v>
+        <v>1000</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1000</v>
       </c>
       <c r="C18" s="4">
         <v>0.94999999999999896</v>
@@ -1681,10 +1699,10 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
-        <v>6.8</v>
-      </c>
-      <c r="B19" s="5">
-        <v>3.76</v>
+        <v>1000</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1000</v>
       </c>
       <c r="C19" s="4">
         <v>0.95999999999999897</v>
@@ -1720,10 +1738,10 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5.94</v>
+        <v>1000</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1000</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
@@ -1759,10 +1777,10 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
-        <v>14</v>
-      </c>
-      <c r="B21" s="5">
-        <v>2.69</v>
+        <v>1000</v>
+      </c>
+      <c r="B21" s="4">
+        <v>1000</v>
       </c>
       <c r="C21" s="4">
         <v>0.97999999999999898</v>
@@ -1798,10 +1816,10 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
-        <v>9.9</v>
-      </c>
-      <c r="B22" s="5">
-        <v>4.6399999999999997</v>
+        <v>1000</v>
+      </c>
+      <c r="B22" s="4">
+        <v>1000</v>
       </c>
       <c r="C22" s="4">
         <v>1</v>
@@ -1837,10 +1855,10 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="B23" s="5">
-        <v>2.69</v>
+        <v>1000</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1000</v>
       </c>
       <c r="C23" s="4">
         <v>0.999999999999999</v>
@@ -1876,10 +1894,10 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="B24" s="5">
-        <v>2.83</v>
+        <v>1000</v>
+      </c>
+      <c r="B24" s="4">
+        <v>1000</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -1915,10 +1933,10 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
-        <v>36</v>
-      </c>
-      <c r="B25" s="5">
-        <v>3.01</v>
+        <v>1000</v>
+      </c>
+      <c r="B25" s="4">
+        <v>1000</v>
       </c>
       <c r="C25" s="4">
         <v>1</v>
@@ -1954,10 +1972,10 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
-        <v>14</v>
-      </c>
-      <c r="B26" s="5">
-        <v>3.33</v>
+        <v>1000</v>
+      </c>
+      <c r="B26" s="4">
+        <v>1000</v>
       </c>
       <c r="C26" s="4">
         <v>1</v>
@@ -1993,10 +2011,10 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
-        <v>7.7</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2.4900000000000002</v>
+        <v>1000</v>
+      </c>
+      <c r="B27" s="4">
+        <v>1000</v>
       </c>
       <c r="C27" s="4">
         <v>1</v>
@@ -2036,4 +2054,39 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>